--- a/public/uploads/duocdangky.xlsx
+++ b/public/uploads/duocdangky.xlsx
@@ -16,75 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>hv0001</t>
+    <t>Đỗ Văn Quang</t>
   </si>
   <si>
-    <t>Học Viên 1</t>
-  </si>
-  <si>
-    <t>hv0002</t>
-  </si>
-  <si>
-    <t>Học Viên 2</t>
-  </si>
-  <si>
-    <t>hv0003</t>
-  </si>
-  <si>
-    <t>hv0004</t>
-  </si>
-  <si>
-    <t>hv0005</t>
-  </si>
-  <si>
-    <t>hv0006</t>
-  </si>
-  <si>
-    <t>hv0007</t>
-  </si>
-  <si>
-    <t>hv0008</t>
-  </si>
-  <si>
-    <t>hv0009</t>
-  </si>
-  <si>
-    <t>hv0010</t>
-  </si>
-  <si>
-    <t>hv0011</t>
-  </si>
-  <si>
-    <t>Học Viên 3</t>
-  </si>
-  <si>
-    <t>Học Viên 4</t>
-  </si>
-  <si>
-    <t>Học Viên 5</t>
-  </si>
-  <si>
-    <t>Học Viên 6</t>
-  </si>
-  <si>
-    <t>Học Viên 7</t>
-  </si>
-  <si>
-    <t>Học Viên 8</t>
-  </si>
-  <si>
-    <t>Học Viên 9</t>
-  </si>
-  <si>
-    <t>Học Viên 10</t>
-  </si>
-  <si>
-    <t>Học Viên 11</t>
-  </si>
-  <si>
-    <t>hello</t>
+    <t>Nguyễn Quang Hiếu</t>
   </si>
 </sst>
 </file>
@@ -424,105 +361,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+      <c r="A1" s="1">
+        <v>14020633</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
+      <c r="A2" s="1">
+        <v>14020678</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
